--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80142AEA-4471-49D1-B0E8-B89FFD61D816}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661AA681-BAE2-4F03-A977-C9FE703D00F8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
+    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -86,13 +86,13 @@
     <t>12.01.26</t>
   </si>
   <si>
-    <t>Created a repository for the project in github. Changed feedback on how the guesses are displayed. Instead of text, it shows colors</t>
-  </si>
-  <si>
     <t>Total hours</t>
   </si>
   <si>
     <t>14.01.26</t>
+  </si>
+  <si>
+    <t>Created a repository for the project in github. Changed feedback on how the guesses are displayed by creating a new class called ConsoleColors. Instead of text, it shows colors when comparing the letters of the guessed word to the mystery one</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]dd\.mm\.yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$]dd\.mm\.yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd\.mm\.yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,7 +141,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,8 +174,18 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$]dd\.mm\.yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd\.mm\.yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$]dd\.mm\.yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd\.mm\.yyyy;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$]dd\.mm\.yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd\.mm\.yyyy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -199,16 +209,6 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$]dd\.mm\.yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd\.mm\.yyyy;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -222,13 +222,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowCount="1" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:C9" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{51C3CB2D-637D-49D2-9E6F-F33C7365A152}" name="Time invested (h)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{51C3CB2D-637D-49D2-9E6F-F33C7365A152}" name="Time invested (h)" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -646,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -654,12 +658,12 @@
     </row>
     <row r="9" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661AA681-BAE2-4F03-A977-C9FE703D00F8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F30733-B6E8-47B9-93F5-E2981C0AE465}"/>
   <bookViews>
-    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Created a repository for the project in github. Changed feedback on how the guesses are displayed by creating a new class called ConsoleColors. Instead of text, it shows colors when comparing the letters of the guessed word to the mystery one</t>
+  </si>
+  <si>
+    <t>Worked on fixing a logic error while solving wordle where guess with equal letters would all be colored even if mystery word didn’t have that many letters. Also did research on GUI (specifically JavaFX)</t>
   </si>
 </sst>
 </file>
@@ -557,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -631,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
@@ -660,6 +663,12 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
@@ -667,7 +676,7 @@
       </c>
       <c r="C10" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F30733-B6E8-47B9-93F5-E2981C0AE465}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2311FB-6D33-43BF-AE3C-C4C9738514C1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -95,7 +95,13 @@
     <t>Created a repository for the project in github. Changed feedback on how the guesses are displayed by creating a new class called ConsoleColors. Instead of text, it shows colors when comparing the letters of the guessed word to the mystery one</t>
   </si>
   <si>
-    <t>Worked on fixing a logic error while solving wordle where guess with equal letters would all be colored even if mystery word didn’t have that many letters. Also did research on GUI (specifically JavaFX)</t>
+    <t>Created the timetable document and personalized the README documentWorked on fixing a logic error while solving wordle where guess with equal letters would all be colored even if mystery word didn’t have that many letters. Also did research on GUI (specifically JavaFX)</t>
+  </si>
+  <si>
+    <t>15.01.26</t>
+  </si>
+  <si>
+    <t>Solved the problem on Wordle where there would be possible duplicates if playing with more than one word. Did rearch on Mathler and started working on the Mathler class.</t>
   </si>
 </sst>
 </file>
@@ -230,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C10" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C9" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C10" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -558,16 +564,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.9296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.73046875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,13 +676,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2311FB-6D33-43BF-AE3C-C4C9738514C1}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7698EEC8-F626-4869-9F6E-63C990BDE572}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -693,7 +693,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7698EEC8-F626-4869-9F6E-63C990BDE572}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D55C7A9-8D0F-4DAA-BDD3-AE873097395E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Solved the problem on Wordle where there would be possible duplicates if playing with more than one word. Did rearch on Mathler and started working on the Mathler class.</t>
+  </si>
+  <si>
+    <t>16.01.26</t>
+  </si>
+  <si>
+    <t>Worked on Mathler and did some research on how I could solve its problem.  Also started Xordle class</t>
   </si>
 </sst>
 </file>
@@ -236,8 +242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C10" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C12" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C11" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -687,13 +693,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D55C7A9-8D0F-4DAA-BDD3-AE873097395E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341A3167-D9FB-427D-B91B-8BD26C808D57}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Worked on Mathler and did some research on how I could solve its problem.  Also started Xordle class</t>
+  </si>
+  <si>
+    <t>17.01.26</t>
+  </si>
+  <si>
+    <t>Developed Mathler so that it generates a random but logical equation and calculates the result.</t>
   </si>
 </sst>
 </file>
@@ -242,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C12" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C11" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C13" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C12" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -570,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -704,13 +710,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>54</v>
+        <v>60.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341A3167-D9FB-427D-B91B-8BD26C808D57}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474BEAA7-BAE4-434A-8DEB-38BBDF9F899A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Developed Mathler so that it generates a random but logical equation and calculates the result.</t>
+  </si>
+  <si>
+    <t>Created a first version of Xordle and wrote comments throughout the code</t>
+  </si>
+  <si>
+    <t>18.01.26</t>
+  </si>
+  <si>
+    <t>Created a first version of Mathler. Did research on Verticle and JavaFX</t>
   </si>
 </sst>
 </file>
@@ -248,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C13" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C12" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C15" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C14" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -576,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.73046875" style="6" bestFit="1" customWidth="1"/>
   </cols>
@@ -721,19 +730,42 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C15" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>60.5</v>
+        <v>71.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474BEAA7-BAE4-434A-8DEB-38BBDF9F899A}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA9E604-A7B1-43EE-A094-85B041909EC2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
+    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Created a first version of Mathler. Did research on Verticle and JavaFX</t>
+  </si>
+  <si>
+    <t>22.01.26</t>
+  </si>
+  <si>
+    <t>Created a first version of Verticle and corrected many bugs like letter duplicates. Installed Spellchecker plugin</t>
   </si>
 </sst>
 </file>
@@ -257,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C15" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C14" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C15" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -752,13 +758,24 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>71.5</v>
+        <v>80.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA9E604-A7B1-43EE-A094-85B041909EC2}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73CA4EEA-4C11-47EA-8F99-7429415EDD77}"/>
   <bookViews>
     <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Created a first version of Verticle and corrected many bugs like letter duplicates. Installed Spellchecker plugin</t>
+  </si>
+  <si>
+    <t>23.01.26</t>
+  </si>
+  <si>
+    <t>Rewrote code according to Spellchecker suggestions. Did research on JavaFX</t>
   </si>
 </sst>
 </file>
@@ -263,8 +269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C15" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C16" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -591,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -769,13 +775,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>80.5</v>
+        <v>85.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73CA4EEA-4C11-47EA-8F99-7429415EDD77}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DC61FF-36D4-4435-A2B6-7C12817873E3}"/>
   <bookViews>
     <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Rewrote code according to Spellchecker suggestions. Did research on JavaFX</t>
+  </si>
+  <si>
+    <t>25.01.26</t>
+  </si>
+  <si>
+    <t>Changed variable names for user readability. Prepared for Feedback market.</t>
   </si>
 </sst>
 </file>
@@ -269,8 +275,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C16" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C17" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -597,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -786,13 +792,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>85.5</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DC61FF-36D4-4435-A2B6-7C12817873E3}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5F9DF9-E879-4866-BA04-229C7533461B}"/>
   <bookViews>
-    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Changed variable names for user readability. Prepared for Feedback market.</t>
+  </si>
+  <si>
+    <t>26.01.26</t>
+  </si>
+  <si>
+    <t>Feedback market. Did research on JavaFX</t>
   </si>
 </sst>
 </file>
@@ -275,8 +281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C17" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C19" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C18" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -803,13 +809,24 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>89</v>
+        <v>92.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5F9DF9-E879-4866-BA04-229C7533461B}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A5DEDF-1B17-4066-B9F7-DE099DBB9727}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Feedback market. Did research on JavaFX</t>
+  </si>
+  <si>
+    <t>27.01.26</t>
+  </si>
+  <si>
+    <t>Created an extern word list for English (4, 5, 6 and 7) and for German (5). Created a new class to check if the user's guess is valid using an external library. Changed the code to function with the new class.</t>
   </si>
 </sst>
 </file>
@@ -281,8 +287,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C19" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C18" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C20" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C19" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -609,9 +615,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -820,13 +826,24 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>92.5</v>
+        <v>104.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03A5DEDF-1B17-4066-B9F7-DE099DBB9727}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C792D64C-AB31-4FAB-8D6A-251E0D0BBA8B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
+    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Created an extern word list for English (4, 5, 6 and 7) and for German (5). Created a new class to check if the user's guess is valid using an external library. Changed the code to function with the new class.</t>
+  </si>
+  <si>
+    <t>29.01.26</t>
+  </si>
+  <si>
+    <t>Watched tutorials on JavaFX. Created a class to practice JavaFX. Asked ChatGPT to create a StartMenu class for the game to have an pointer.</t>
   </si>
 </sst>
 </file>
@@ -287,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C20" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C19" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C20" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -837,13 +843,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>104.5</v>
+        <v>109.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C792D64C-AB31-4FAB-8D6A-251E0D0BBA8B}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1861C3C-DD01-419F-8449-75B05A92C43F}"/>
   <bookViews>
     <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Watched tutorials on JavaFX. Created a class to practice JavaFX. Asked ChatGPT to create a StartMenu class for the game to have an pointer.</t>
+  </si>
+  <si>
+    <t>30.01.26</t>
+  </si>
+  <si>
+    <t>Proggramed a starting menu with two scenes. One is where the user can select the language and game mode if the word list and the second is to select how many words/letters/numbers the game should have.</t>
   </si>
 </sst>
 </file>
@@ -293,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C20" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C22" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C21" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -621,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -854,13 +860,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>109.5</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1861C3C-DD01-419F-8449-75B05A92C43F}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E9350B0-AF16-4358-98F0-C93FE4C6D74C}"/>
   <bookViews>
     <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Proggramed a starting menu with two scenes. One is where the user can select the language and game mode if the word list and the second is to select how many words/letters/numbers the game should have.</t>
+  </si>
+  <si>
+    <t>31.01.26</t>
+  </si>
+  <si>
+    <t>Created the Xordle gameplay GUI, but without logic.</t>
   </si>
 </sst>
 </file>
@@ -299,8 +305,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C22" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C21" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C22" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -627,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -871,13 +877,24 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E9350B0-AF16-4358-98F0-C93FE4C6D74C}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB59212-5A37-425B-ADA7-1FC265195B46}"/>
   <bookViews>
     <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Created the Xordle gameplay GUI, but without logic.</t>
+  </si>
+  <si>
+    <t>Created a XordleLogic class based on the Xordle class and implemented it in the GUI StartMenu class</t>
+  </si>
+  <si>
+    <t>01.02.26</t>
   </si>
 </sst>
 </file>
@@ -305,8 +311,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C22" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C23" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -888,13 +894,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>121</v>
+        <v>129.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB59212-5A37-425B-ADA7-1FC265195B46}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B6A9EDC-9F91-48F2-97E6-FBBFE71CD5D8}"/>
   <bookViews>
-    <workbookView xWindow="1042" yWindow="1042" windowWidth="16200" windowHeight="9983" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>01.02.26</t>
+  </si>
+  <si>
+    <t>02.02.26</t>
+  </si>
+  <si>
+    <t>Divided GUI code into a parent class (Clusterle) and children classes (Navigator, Settings, StartMenu, XordleView). Also created the WordleLogic and WordleView classes and imlpemented them into the GUI. Made some layout changes (Grid improvements and textfield removal).</t>
   </si>
 </sst>
 </file>
@@ -311,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C23" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C25" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C24" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -639,16 +645,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.73046875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -905,13 +911,24 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>129.5</v>
+        <v>139.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B6A9EDC-9F91-48F2-97E6-FBBFE71CD5D8}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7BF788-E70E-4686-B713-F1FBD5F4AF28}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Divided GUI code into a parent class (Clusterle) and children classes (Navigator, Settings, StartMenu, XordleView). Also created the WordleLogic and WordleView classes and imlpemented them into the GUI. Made some layout changes (Grid improvements and textfield removal).</t>
+  </si>
+  <si>
+    <t>03.02.26</t>
+  </si>
+  <si>
+    <t>Created the classes VerticleLogic and VerticleView and implemented them to GUI</t>
   </si>
 </sst>
 </file>
@@ -317,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C25" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C24" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C26" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C25" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -645,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -922,13 +928,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>139.5</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7BF788-E70E-4686-B713-F1FBD5F4AF28}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDF6AEE-1C4B-4F59-8F22-D031942B1FAB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Created the classes VerticleLogic and VerticleView and implemented them to GUI</t>
+  </si>
+  <si>
+    <t>04.02.26</t>
+  </si>
+  <si>
+    <t>Created the classes MathlerLogic and MathlerView and implemented them to the GUI</t>
   </si>
 </sst>
 </file>
@@ -323,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C26" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C25" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C27" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C26" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -651,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -939,13 +945,24 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="7" t="s">
+    <row r="26" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>146</v>
+        <v>151.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDF6AEE-1C4B-4F59-8F22-D031942B1FAB}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57502F45-2352-4FD0-A8F3-CE419E128CA9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Created the classes MathlerLogic and MathlerView and implemented them to the GUI</t>
+  </si>
+  <si>
+    <t>05.02.26</t>
+  </si>
+  <si>
+    <t>Created a GUI keyboard using the classes KeyReceiver and OnScreenKeyboard and implemented them on the game modes.</t>
   </si>
 </sst>
 </file>
@@ -329,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C27" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C26" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C28" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C27" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -657,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -956,13 +962,24 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C28" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>151.5</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57502F45-2352-4FD0-A8F3-CE419E128CA9}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC561D1C-42BE-48DA-A027-992585B1C808}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Created a GUI keyboard using the classes KeyReceiver and OnScreenKeyboard and implemented them on the game modes.</t>
+  </si>
+  <si>
+    <t>07.02.26</t>
+  </si>
+  <si>
+    <t>Fixed a bug on wordle where there was no back button. Created german four-letter word list.</t>
   </si>
 </sst>
 </file>
@@ -335,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C28" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C27" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C29" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C28" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -663,9 +669,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -973,13 +979,24 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>160</v>
+        <v>163.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC561D1C-42BE-48DA-A027-992585B1C808}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BCC68A1-7026-4B1F-B5E1-D559EEC0DC9E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Fixed a bug on wordle where there was no back button. Created german four-letter word list.</t>
+  </si>
+  <si>
+    <t>09.02.26</t>
+  </si>
+  <si>
+    <t>Fixed some bugs and optimized code. Improved the visuals. Created a .bat file for Windows users.</t>
   </si>
 </sst>
 </file>
@@ -341,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C29" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C28" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C30" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C29" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -669,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -990,13 +996,24 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C30" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>163.5</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BCC68A1-7026-4B1F-B5E1-D559EEC0DC9E}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D482945-C53B-4BD1-AD15-03FE00726B04}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     <t>09.02.26</t>
   </si>
   <si>
-    <t>Fixed some bugs and optimized code. Improved the visuals. Created a .bat file for Windows users.</t>
+    <t>Fixed some bugs and optimized code. Improved the visuals. Created a .bat file for Windows users. Tried creating a .exe file but gave up on it.</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1004,7 +1004,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="6">
-        <v>9.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C30" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>173</v>
+        <v>175.5</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable Wordle.xlsx
+++ b/Timetable Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ceb8f188b5391645/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D482945-C53B-4BD1-AD15-03FE00726B04}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{05CE830E-149C-49AC-8C2F-B7B785A5B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927C3C65-5149-4F0C-84D6-EFB5337FDD17}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{A9E5ACCD-4618-43AB-8F52-88A2BB6ECBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Fixed some bugs and optimized code. Improved the visuals. Created a .bat file for Windows users. Tried creating a .exe file but gave up on it.</t>
+  </si>
+  <si>
+    <t>10.02.26</t>
+  </si>
+  <si>
+    <t>Implemented JUnit tests in the code. Fixed a bug with the ComboBox for German letters amount</t>
+  </si>
+  <si>
+    <t>11.02.26</t>
+  </si>
+  <si>
+    <t>Fixed the visuals for Wordle so it looks like the other game modes. Adapted theme.css and the GameStyles class. Did some minor optimization in the code. Added more comments.</t>
   </si>
 </sst>
 </file>
@@ -347,8 +359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C30" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:C29" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}" name="Table1" displayName="Table1" ref="A1:C32" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C31" xr:uid="{2B3ABD43-578B-4C02-A940-D77B3B945342}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CC7AB97D-CFD2-42E7-A998-36E38E36ECA3}" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F49AE176-CF2F-4923-9E45-8D1B549A51CC}" name="Content" totalsRowLabel="Total hours" dataDxfId="4" totalsRowDxfId="1"/>
@@ -675,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378FDF7D-FEB8-4ACB-A586-C6DAE73A0F6E}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1007,13 +1019,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C32" s="6">
         <f>SUBTOTAL(109,Table1[Time invested (h)])</f>
-        <v>175.5</v>
+        <v>184.5</v>
       </c>
     </row>
   </sheetData>
